--- a/data/pca/factorExposure/factorExposure_2011-11-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-11-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01008674588269353</v>
+        <v>0.01239126146038399</v>
       </c>
       <c r="C2">
-        <v>-0.03189083345837698</v>
+        <v>0.02080797101573359</v>
       </c>
       <c r="D2">
-        <v>0.01673960455832516</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.02491985933944815</v>
+      </c>
+      <c r="E2">
+        <v>0.008296347465359909</v>
+      </c>
+      <c r="F2">
+        <v>0.03120427655119639</v>
+      </c>
+      <c r="G2">
+        <v>-0.002513203518505696</v>
+      </c>
+      <c r="H2">
+        <v>-0.0202118815452421</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07350994238450376</v>
+        <v>0.08740072312059413</v>
       </c>
       <c r="C4">
-        <v>-0.06262088327295001</v>
+        <v>0.02191077666611741</v>
       </c>
       <c r="D4">
-        <v>0.07085528038620988</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08059764338166586</v>
+      </c>
+      <c r="E4">
+        <v>0.0115661539290526</v>
+      </c>
+      <c r="F4">
+        <v>0.04292109137394684</v>
+      </c>
+      <c r="G4">
+        <v>-0.02029461861810848</v>
+      </c>
+      <c r="H4">
+        <v>0.03650635166452759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1078881311413966</v>
+        <v>0.1218713345501651</v>
       </c>
       <c r="C6">
-        <v>-0.06152335112559394</v>
+        <v>0.04054179171900407</v>
       </c>
       <c r="D6">
-        <v>0.0003448702723872295</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02171402244748884</v>
+      </c>
+      <c r="E6">
+        <v>-0.0216080726029834</v>
+      </c>
+      <c r="F6">
+        <v>0.03911409019047014</v>
+      </c>
+      <c r="G6">
+        <v>-0.04376783074401444</v>
+      </c>
+      <c r="H6">
+        <v>-0.1654223385134623</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.05568548206129789</v>
+        <v>0.06519071645457926</v>
       </c>
       <c r="C7">
-        <v>-0.03953943259431055</v>
+        <v>0.008440197790616531</v>
       </c>
       <c r="D7">
-        <v>0.02987278639904455</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05635159007514502</v>
+      </c>
+      <c r="E7">
+        <v>0.02727326158264809</v>
+      </c>
+      <c r="F7">
+        <v>0.04550580160880625</v>
+      </c>
+      <c r="G7">
+        <v>0.02532075168631162</v>
+      </c>
+      <c r="H7">
+        <v>0.02401237779221616</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.04148940650153455</v>
+        <v>0.04449621502085874</v>
       </c>
       <c r="C8">
-        <v>-0.01790318644253235</v>
+        <v>0.003070894983866181</v>
       </c>
       <c r="D8">
-        <v>0.06136242587430636</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03070062322164439</v>
+      </c>
+      <c r="E8">
+        <v>0.007930257174265721</v>
+      </c>
+      <c r="F8">
+        <v>0.0730988890795881</v>
+      </c>
+      <c r="G8">
+        <v>-0.08581007076920485</v>
+      </c>
+      <c r="H8">
+        <v>-0.006659943826672224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0712073421458891</v>
+        <v>0.08030347837462136</v>
       </c>
       <c r="C9">
-        <v>-0.04971547977745089</v>
+        <v>0.01191254102974174</v>
       </c>
       <c r="D9">
-        <v>0.06592726985737879</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.07072054954793565</v>
+      </c>
+      <c r="E9">
+        <v>0.02494695187556633</v>
+      </c>
+      <c r="F9">
+        <v>0.03756179436316699</v>
+      </c>
+      <c r="G9">
+        <v>-0.03073410285014558</v>
+      </c>
+      <c r="H9">
+        <v>0.0409074937649811</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02253398766008182</v>
+        <v>0.04893999162868954</v>
       </c>
       <c r="C10">
-        <v>-0.01577786797080163</v>
+        <v>0.1072093882677101</v>
       </c>
       <c r="D10">
-        <v>-0.1722667421650288</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1605332275885188</v>
+      </c>
+      <c r="E10">
+        <v>0.03019715122699894</v>
+      </c>
+      <c r="F10">
+        <v>0.05990372620096737</v>
+      </c>
+      <c r="G10">
+        <v>0.03408481326204151</v>
+      </c>
+      <c r="H10">
+        <v>-0.04036709172731036</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.06727137791368076</v>
+        <v>0.07319455432871164</v>
       </c>
       <c r="C11">
-        <v>-0.04461196994651256</v>
+        <v>0.00470575225822015</v>
       </c>
       <c r="D11">
-        <v>0.05743212888575986</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06545643000522147</v>
+      </c>
+      <c r="E11">
+        <v>0.003584229824557908</v>
+      </c>
+      <c r="F11">
+        <v>0.03557275915453138</v>
+      </c>
+      <c r="G11">
+        <v>-0.04415156934050236</v>
+      </c>
+      <c r="H11">
+        <v>0.06277988848877783</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05837996662430141</v>
+        <v>0.06688980348358876</v>
       </c>
       <c r="C12">
-        <v>-0.05458369608613148</v>
+        <v>0.01773762079274148</v>
       </c>
       <c r="D12">
-        <v>0.04536598526321109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05838599457991977</v>
+      </c>
+      <c r="E12">
+        <v>0.01093468248395065</v>
+      </c>
+      <c r="F12">
+        <v>0.02439764012440479</v>
+      </c>
+      <c r="G12">
+        <v>-0.02043815461238413</v>
+      </c>
+      <c r="H12">
+        <v>0.02733208988241602</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06910928917994119</v>
+        <v>0.0699865662158342</v>
       </c>
       <c r="C13">
-        <v>-0.0514552425585511</v>
+        <v>0.0173040145820223</v>
       </c>
       <c r="D13">
-        <v>0.03391355222197082</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04628514483820967</v>
+      </c>
+      <c r="E13">
+        <v>0.007953137884779938</v>
+      </c>
+      <c r="F13">
+        <v>0.02111133684318217</v>
+      </c>
+      <c r="G13">
+        <v>-0.02125071195908084</v>
+      </c>
+      <c r="H13">
+        <v>0.04927823595323013</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.0294848163842335</v>
+        <v>0.03942262594288394</v>
       </c>
       <c r="C14">
-        <v>-0.03160846383232327</v>
+        <v>0.02483096082040813</v>
       </c>
       <c r="D14">
-        <v>-0.006876405406645792</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02048689299145497</v>
+      </c>
+      <c r="E14">
+        <v>0.02742504503008348</v>
+      </c>
+      <c r="F14">
+        <v>0.01668072265624962</v>
+      </c>
+      <c r="G14">
+        <v>-0.01609253179858382</v>
+      </c>
+      <c r="H14">
+        <v>0.06749242669566366</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04113332574174565</v>
+        <v>0.03981582862363952</v>
       </c>
       <c r="C15">
-        <v>-0.01476348983085987</v>
+        <v>0.001858657058952505</v>
       </c>
       <c r="D15">
-        <v>0.0214110947983211</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.0120025117499632</v>
+      </c>
+      <c r="E15">
+        <v>0.03285075621030271</v>
+      </c>
+      <c r="F15">
+        <v>0.004371907869222465</v>
+      </c>
+      <c r="G15">
+        <v>-0.03123100551396477</v>
+      </c>
+      <c r="H15">
+        <v>0.03263164275217813</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.05691476569599802</v>
+        <v>0.06957746280883538</v>
       </c>
       <c r="C16">
-        <v>-0.04154927984777222</v>
+        <v>0.00768655670511244</v>
       </c>
       <c r="D16">
-        <v>0.0548747184783092</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06608852932515578</v>
+      </c>
+      <c r="E16">
+        <v>0.007036571787182593</v>
+      </c>
+      <c r="F16">
+        <v>0.03053790426194296</v>
+      </c>
+      <c r="G16">
+        <v>-0.01780645802976328</v>
+      </c>
+      <c r="H16">
+        <v>0.0461977367498824</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06339743397015409</v>
+        <v>0.06306587672140301</v>
       </c>
       <c r="C20">
-        <v>-0.03248066048979792</v>
+        <v>-0.0002051474026898807</v>
       </c>
       <c r="D20">
-        <v>0.04506596145941267</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04316509808182678</v>
+      </c>
+      <c r="E20">
+        <v>0.007020861348438988</v>
+      </c>
+      <c r="F20">
+        <v>0.02644832324729607</v>
+      </c>
+      <c r="G20">
+        <v>-0.01938749404137406</v>
+      </c>
+      <c r="H20">
+        <v>0.04419803712514498</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.03235947602852778</v>
+        <v>0.0283378121052825</v>
       </c>
       <c r="C21">
-        <v>-0.008066660006536604</v>
+        <v>-0.008537873066797354</v>
       </c>
       <c r="D21">
-        <v>0.01132011418781187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01879954025512656</v>
+      </c>
+      <c r="E21">
+        <v>0.04008233015533867</v>
+      </c>
+      <c r="F21">
+        <v>-0.01334596069554739</v>
+      </c>
+      <c r="G21">
+        <v>-0.008588777738430076</v>
+      </c>
+      <c r="H21">
+        <v>-0.03750307095153056</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.08265354188854326</v>
+        <v>0.07414546988063998</v>
       </c>
       <c r="C22">
-        <v>-0.08081516989584878</v>
+        <v>0.01742280301932457</v>
       </c>
       <c r="D22">
-        <v>0.1281808303726622</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1035320064548913</v>
+      </c>
+      <c r="E22">
+        <v>0.6016081893192733</v>
+      </c>
+      <c r="F22">
+        <v>-0.04074058078670226</v>
+      </c>
+      <c r="G22">
+        <v>0.1834400837558714</v>
+      </c>
+      <c r="H22">
+        <v>-0.1494455509613181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.08375753003140324</v>
+        <v>0.07509823784050584</v>
       </c>
       <c r="C23">
-        <v>-0.07925226952922988</v>
+        <v>0.01569160086698939</v>
       </c>
       <c r="D23">
-        <v>0.129536338811405</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.104124205141694</v>
+      </c>
+      <c r="E23">
+        <v>0.6039859272129775</v>
+      </c>
+      <c r="F23">
+        <v>-0.0400545244281014</v>
+      </c>
+      <c r="G23">
+        <v>0.1781737474526529</v>
+      </c>
+      <c r="H23">
+        <v>-0.1450725534835995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07281447817928507</v>
+        <v>0.07895643772612561</v>
       </c>
       <c r="C24">
-        <v>-0.05325602244599587</v>
+        <v>0.0119746929755362</v>
       </c>
       <c r="D24">
-        <v>0.05923773937816427</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06637086163229303</v>
+      </c>
+      <c r="E24">
+        <v>0.01369962690396368</v>
+      </c>
+      <c r="F24">
+        <v>0.03762045219742135</v>
+      </c>
+      <c r="G24">
+        <v>-0.03785805935485924</v>
+      </c>
+      <c r="H24">
+        <v>0.03048283874618727</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07190330262121734</v>
+        <v>0.07805743318661396</v>
       </c>
       <c r="C25">
-        <v>-0.0566803838791549</v>
+        <v>0.01836927620894993</v>
       </c>
       <c r="D25">
-        <v>0.05653366659276833</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06043688047001399</v>
+      </c>
+      <c r="E25">
+        <v>0.01778102791992515</v>
+      </c>
+      <c r="F25">
+        <v>0.03440624657942246</v>
+      </c>
+      <c r="G25">
+        <v>-0.04259387017860072</v>
+      </c>
+      <c r="H25">
+        <v>0.03949166614103795</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04406182327663683</v>
+        <v>0.04459119448730665</v>
       </c>
       <c r="C26">
-        <v>-0.01623013553318263</v>
+        <v>-0.0006679468787534947</v>
       </c>
       <c r="D26">
-        <v>0.01065168738352967</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01987180974780807</v>
+      </c>
+      <c r="E26">
+        <v>0.04626060926589086</v>
+      </c>
+      <c r="F26">
+        <v>0.02741126835543781</v>
+      </c>
+      <c r="G26">
+        <v>-0.02692221665615281</v>
+      </c>
+      <c r="H26">
+        <v>0.0464220751176817</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.03756887388077172</v>
+        <v>0.06854675718219858</v>
       </c>
       <c r="C28">
-        <v>-0.04866273105179224</v>
+        <v>0.1812498076805532</v>
       </c>
       <c r="D28">
-        <v>-0.3140025952011598</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2637393057079697</v>
+      </c>
+      <c r="E28">
+        <v>0.03392158798170219</v>
+      </c>
+      <c r="F28">
+        <v>0.05308075043503374</v>
+      </c>
+      <c r="G28">
+        <v>-0.02624624466634431</v>
+      </c>
+      <c r="H28">
+        <v>-0.05609744842118293</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04291270110566828</v>
+        <v>0.04792238771392371</v>
       </c>
       <c r="C29">
-        <v>-0.04210234722177669</v>
+        <v>0.02823972903085238</v>
       </c>
       <c r="D29">
-        <v>-0.003281715197895071</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.02233014086832594</v>
+      </c>
+      <c r="E29">
+        <v>0.05268388404847271</v>
+      </c>
+      <c r="F29">
+        <v>0.02014029368651033</v>
+      </c>
+      <c r="G29">
+        <v>-0.003645100455699084</v>
+      </c>
+      <c r="H29">
+        <v>0.0887164556365342</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1316190916400652</v>
+        <v>0.1273323643484588</v>
       </c>
       <c r="C30">
-        <v>-0.1060853050576603</v>
+        <v>0.03682180988650915</v>
       </c>
       <c r="D30">
-        <v>0.1034322584729269</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.09690725770241455</v>
+      </c>
+      <c r="E30">
+        <v>0.05395882713503975</v>
+      </c>
+      <c r="F30">
+        <v>0.01666971935713527</v>
+      </c>
+      <c r="G30">
+        <v>-0.07557215354195657</v>
+      </c>
+      <c r="H30">
+        <v>-0.04606667520412575</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.0492464212806908</v>
+        <v>0.04928635382827272</v>
       </c>
       <c r="C31">
-        <v>-0.0260611251558337</v>
+        <v>0.0002677511488139112</v>
       </c>
       <c r="D31">
-        <v>0.01745624684574004</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.03639577712040623</v>
+      </c>
+      <c r="E31">
+        <v>0.02270439452792474</v>
+      </c>
+      <c r="F31">
+        <v>0.01012890898265055</v>
+      </c>
+      <c r="G31">
+        <v>0.004804273083798927</v>
+      </c>
+      <c r="H31">
+        <v>0.06466488576169276</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03572528016042893</v>
+        <v>0.03781028753272236</v>
       </c>
       <c r="C32">
-        <v>-0.02632979767034932</v>
+        <v>0.01855394578035385</v>
       </c>
       <c r="D32">
-        <v>0.02929541383464544</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01504718591111926</v>
+      </c>
+      <c r="E32">
+        <v>0.04503458037181989</v>
+      </c>
+      <c r="F32">
+        <v>-0.003319310468609409</v>
+      </c>
+      <c r="G32">
+        <v>-0.04723301255521398</v>
+      </c>
+      <c r="H32">
+        <v>0.002976622128817387</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08413371249773943</v>
+        <v>0.09364283059694577</v>
       </c>
       <c r="C33">
-        <v>-0.04782886443198686</v>
+        <v>0.01032904350631557</v>
       </c>
       <c r="D33">
-        <v>0.04712001769857641</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.05563166329565446</v>
+      </c>
+      <c r="E33">
+        <v>0.01418908670206022</v>
+      </c>
+      <c r="F33">
+        <v>0.002294537742290507</v>
+      </c>
+      <c r="G33">
+        <v>-0.006437531646768481</v>
+      </c>
+      <c r="H33">
+        <v>0.06260723311705686</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05835037605353359</v>
+        <v>0.06671049052953132</v>
       </c>
       <c r="C34">
-        <v>-0.0297327246572129</v>
+        <v>0.0005275155594374835</v>
       </c>
       <c r="D34">
-        <v>0.05210399982795171</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.04878989773609813</v>
+      </c>
+      <c r="E34">
+        <v>0.01440279682393625</v>
+      </c>
+      <c r="F34">
+        <v>0.02014746240266108</v>
+      </c>
+      <c r="G34">
+        <v>-0.02548625774043482</v>
+      </c>
+      <c r="H34">
+        <v>0.04985766931571559</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03558283899431212</v>
+        <v>0.03710591846353679</v>
       </c>
       <c r="C35">
-        <v>-0.01621436680044687</v>
+        <v>0.002349994991433362</v>
       </c>
       <c r="D35">
-        <v>0.01922527067407594</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.02002210771547178</v>
+      </c>
+      <c r="E35">
+        <v>0.02180103131298477</v>
+      </c>
+      <c r="F35">
+        <v>-0.01524298289418243</v>
+      </c>
+      <c r="G35">
+        <v>0.004604138087650372</v>
+      </c>
+      <c r="H35">
+        <v>0.03519727476402507</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02639168780239586</v>
+        <v>0.02800560866441886</v>
       </c>
       <c r="C36">
-        <v>-0.02143247856463512</v>
+        <v>0.007882566959288875</v>
       </c>
       <c r="D36">
-        <v>0.01924894542880479</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02175830544455765</v>
+      </c>
+      <c r="E36">
+        <v>0.03403629965314937</v>
+      </c>
+      <c r="F36">
+        <v>0.02733133784548025</v>
+      </c>
+      <c r="G36">
+        <v>-0.01327664540479242</v>
+      </c>
+      <c r="H36">
+        <v>0.04114893434222237</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.05066054342269479</v>
+        <v>0.04821832103088226</v>
       </c>
       <c r="C38">
-        <v>-0.01281340323473561</v>
+        <v>-0.007624673563849657</v>
       </c>
       <c r="D38">
-        <v>0.004178757864111485</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0210941578309301</v>
+      </c>
+      <c r="E38">
+        <v>0.0494831671142802</v>
+      </c>
+      <c r="F38">
+        <v>-0.0008862095609669229</v>
+      </c>
+      <c r="G38">
+        <v>-0.002452002446706251</v>
+      </c>
+      <c r="H38">
+        <v>0.02886562533689466</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09007529485240701</v>
+        <v>0.1003592541660406</v>
       </c>
       <c r="C39">
-        <v>-0.07868971664450407</v>
+        <v>0.03290735344067926</v>
       </c>
       <c r="D39">
-        <v>0.04604377006760284</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.07601518502581943</v>
+      </c>
+      <c r="E39">
+        <v>0.003477314099476463</v>
+      </c>
+      <c r="F39">
+        <v>0.004475926608148231</v>
+      </c>
+      <c r="G39">
+        <v>-0.05053932492594779</v>
+      </c>
+      <c r="H39">
+        <v>0.02399214298341495</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.08032892724837921</v>
+        <v>0.06093136780152261</v>
       </c>
       <c r="C40">
-        <v>-0.04144379937929073</v>
+        <v>-0.00752274183942694</v>
       </c>
       <c r="D40">
-        <v>0.0110813590427697</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03511167589522641</v>
+      </c>
+      <c r="E40">
+        <v>0.03977543320487097</v>
+      </c>
+      <c r="F40">
+        <v>-0.03735081726563166</v>
+      </c>
+      <c r="G40">
+        <v>-0.06022544802969654</v>
+      </c>
+      <c r="H40">
+        <v>-0.08236217127038885</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04417206600283462</v>
+        <v>0.04606385867784548</v>
       </c>
       <c r="C41">
-        <v>-0.01929618629948947</v>
+        <v>-0.004945960029853729</v>
       </c>
       <c r="D41">
-        <v>0.03213260009755323</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.0338179229630613</v>
+      </c>
+      <c r="E41">
+        <v>0.0009836703111204964</v>
+      </c>
+      <c r="F41">
+        <v>-0.0133426382556045</v>
+      </c>
+      <c r="G41">
+        <v>-0.006221554404851104</v>
+      </c>
+      <c r="H41">
+        <v>0.03306867165601724</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.05379971514034681</v>
+        <v>0.0601253088746565</v>
       </c>
       <c r="C43">
-        <v>-0.0320989007990275</v>
+        <v>0.009493966325894332</v>
       </c>
       <c r="D43">
-        <v>0.00701868058993585</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.0342279558281892</v>
+      </c>
+      <c r="E43">
+        <v>0.02008486039116536</v>
+      </c>
+      <c r="F43">
+        <v>0.0124985214463498</v>
+      </c>
+      <c r="G43">
+        <v>0.01971453480047322</v>
+      </c>
+      <c r="H43">
+        <v>0.05905897441682955</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09613381215147226</v>
+        <v>0.094773034060327</v>
       </c>
       <c r="C44">
-        <v>-0.03634089398206587</v>
+        <v>-0.004839437737205738</v>
       </c>
       <c r="D44">
-        <v>0.04910714508316954</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.05421487405505877</v>
+      </c>
+      <c r="E44">
+        <v>0.08006623463040775</v>
+      </c>
+      <c r="F44">
+        <v>0.08208254392714998</v>
+      </c>
+      <c r="G44">
+        <v>-0.06991101669827175</v>
+      </c>
+      <c r="H44">
+        <v>0.05085604928800927</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02578067421501939</v>
+        <v>0.03835224861059403</v>
       </c>
       <c r="C46">
-        <v>-0.02359792494820336</v>
+        <v>0.01109880303933953</v>
       </c>
       <c r="D46">
-        <v>0.03024738456055451</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03846417760357519</v>
+      </c>
+      <c r="E46">
+        <v>0.03199445393204602</v>
+      </c>
+      <c r="F46">
+        <v>0.0159883351759066</v>
+      </c>
+      <c r="G46">
+        <v>0.005023798492136097</v>
+      </c>
+      <c r="H46">
+        <v>0.03656905945847036</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03194566660257436</v>
+        <v>0.04065791087701901</v>
       </c>
       <c r="C47">
-        <v>-0.02165377957713465</v>
+        <v>0.01445833784806254</v>
       </c>
       <c r="D47">
-        <v>-0.004831936130834978</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01373945234572223</v>
+      </c>
+      <c r="E47">
+        <v>0.04264541414253803</v>
+      </c>
+      <c r="F47">
+        <v>-0.00771598332352497</v>
+      </c>
+      <c r="G47">
+        <v>0.03546079681057049</v>
+      </c>
+      <c r="H47">
+        <v>0.02511174047600496</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03709536801630235</v>
+        <v>0.03968863517050845</v>
       </c>
       <c r="C48">
-        <v>-0.03032978669082117</v>
+        <v>0.01136123938661572</v>
       </c>
       <c r="D48">
-        <v>0.02774277218585003</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.02467705525312267</v>
+      </c>
+      <c r="E48">
+        <v>0.04068016914414464</v>
+      </c>
+      <c r="F48">
+        <v>0.007028920371441367</v>
+      </c>
+      <c r="G48">
+        <v>-0.02136078666625689</v>
+      </c>
+      <c r="H48">
+        <v>0.0231212391933573</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.161708350803855</v>
+        <v>0.1969291431942964</v>
       </c>
       <c r="C49">
-        <v>-0.05538083234329284</v>
+        <v>0.03007166160753458</v>
       </c>
       <c r="D49">
-        <v>0.005080713553179499</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.03374378452560459</v>
+      </c>
+      <c r="E49">
+        <v>-0.1797365069330142</v>
+      </c>
+      <c r="F49">
+        <v>0.0339453219733856</v>
+      </c>
+      <c r="G49">
+        <v>0.1340482924909777</v>
+      </c>
+      <c r="H49">
+        <v>-0.2365525834506279</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.04505722961520679</v>
+        <v>0.04791923203427868</v>
       </c>
       <c r="C50">
-        <v>-0.03076272891745402</v>
+        <v>0.007160115934785305</v>
       </c>
       <c r="D50">
-        <v>0.02744260968806907</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03915048246520544</v>
+      </c>
+      <c r="E50">
+        <v>0.0279768502145015</v>
+      </c>
+      <c r="F50">
+        <v>0.005741807113635103</v>
+      </c>
+      <c r="G50">
+        <v>-0.000791543157711441</v>
+      </c>
+      <c r="H50">
+        <v>0.07261651432561601</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02397205851375186</v>
+        <v>0.03370346390509737</v>
       </c>
       <c r="C51">
-        <v>-0.003935610019321548</v>
+        <v>0.003234531333309897</v>
       </c>
       <c r="D51">
-        <v>-0.002584305413560072</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.002698234379134664</v>
+      </c>
+      <c r="E51">
+        <v>0.005787787892795234</v>
+      </c>
+      <c r="F51">
+        <v>0.01132268177006489</v>
+      </c>
+      <c r="G51">
+        <v>0.01964435403234205</v>
+      </c>
+      <c r="H51">
+        <v>-0.01565119892251971</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1513414816544601</v>
+        <v>0.1609051111679879</v>
       </c>
       <c r="C53">
-        <v>-0.08426109841061653</v>
+        <v>0.04633636427514598</v>
       </c>
       <c r="D53">
-        <v>-0.01159244491216339</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03420939686057044</v>
+      </c>
+      <c r="E53">
+        <v>-0.03065828649379864</v>
+      </c>
+      <c r="F53">
+        <v>0.000164714399618453</v>
+      </c>
+      <c r="G53">
+        <v>0.01231406531503787</v>
+      </c>
+      <c r="H53">
+        <v>0.196310214164928</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05863563928034255</v>
+        <v>0.06005836614437797</v>
       </c>
       <c r="C54">
-        <v>-0.03436626817874901</v>
+        <v>0.01840489158892104</v>
       </c>
       <c r="D54">
-        <v>0.01711496032021022</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01788899372095218</v>
+      </c>
+      <c r="E54">
+        <v>0.05750750178430905</v>
+      </c>
+      <c r="F54">
+        <v>0.01855691910641262</v>
+      </c>
+      <c r="G54">
+        <v>-0.05339824108679054</v>
+      </c>
+      <c r="H54">
+        <v>0.04633749338215434</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09831159719534559</v>
+        <v>0.1007610611925869</v>
       </c>
       <c r="C55">
-        <v>-0.05510405650838815</v>
+        <v>0.02231062789678554</v>
       </c>
       <c r="D55">
-        <v>0.006365959035269861</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.03492616783786134</v>
+      </c>
+      <c r="E55">
+        <v>-0.002719584851655968</v>
+      </c>
+      <c r="F55">
+        <v>0.02009283382862214</v>
+      </c>
+      <c r="G55">
+        <v>-0.00976725095531413</v>
+      </c>
+      <c r="H55">
+        <v>0.1519087526410532</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1477877623284933</v>
+        <v>0.1548696443859318</v>
       </c>
       <c r="C56">
-        <v>-0.08511815391700837</v>
+        <v>0.03589446848947515</v>
       </c>
       <c r="D56">
-        <v>-0.007093832720445828</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05267670109361054</v>
+      </c>
+      <c r="E56">
+        <v>-0.01114351006072389</v>
+      </c>
+      <c r="F56">
+        <v>0.02171977857540961</v>
+      </c>
+      <c r="G56">
+        <v>0.004556600831001852</v>
+      </c>
+      <c r="H56">
+        <v>0.2007240420491799</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1321135384397013</v>
+        <v>0.09870486173598528</v>
       </c>
       <c r="C58">
-        <v>0.0193103079747385</v>
+        <v>-0.07391423638821719</v>
       </c>
       <c r="D58">
-        <v>0.0494543089536456</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.01002378697200047</v>
+      </c>
+      <c r="E58">
+        <v>0.1236850371636481</v>
+      </c>
+      <c r="F58">
+        <v>0.03131803471430891</v>
+      </c>
+      <c r="G58">
+        <v>0.08408601626622481</v>
+      </c>
+      <c r="H58">
+        <v>-0.2080439870779937</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1119278099222915</v>
+        <v>0.145779260852515</v>
       </c>
       <c r="C59">
-        <v>-0.06082374216177851</v>
+        <v>0.2001756593331714</v>
       </c>
       <c r="D59">
-        <v>-0.4126353129182492</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3111620734917522</v>
+      </c>
+      <c r="E59">
+        <v>0.02614171439539259</v>
+      </c>
+      <c r="F59">
+        <v>0.006028150929858246</v>
+      </c>
+      <c r="G59">
+        <v>-0.005815408618939054</v>
+      </c>
+      <c r="H59">
+        <v>0.01725114696812223</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2052523069764735</v>
+        <v>0.2367505673805901</v>
       </c>
       <c r="C60">
-        <v>-0.103201435581504</v>
+        <v>0.05381811698748336</v>
       </c>
       <c r="D60">
-        <v>-0.001550337483632589</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.059973279378563</v>
+      </c>
+      <c r="E60">
+        <v>-0.1259641697297858</v>
+      </c>
+      <c r="F60">
+        <v>0.04352384570952763</v>
+      </c>
+      <c r="G60">
+        <v>0.01971294293720088</v>
+      </c>
+      <c r="H60">
+        <v>-0.1495369484088073</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07752962505899744</v>
+        <v>0.08486765471072483</v>
       </c>
       <c r="C61">
-        <v>-0.05026837838729237</v>
+        <v>0.01766067913916517</v>
       </c>
       <c r="D61">
-        <v>0.02961810019756659</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.05091027687612556</v>
+      </c>
+      <c r="E61">
+        <v>0.008764717389035805</v>
+      </c>
+      <c r="F61">
+        <v>0.01449162719009594</v>
+      </c>
+      <c r="G61">
+        <v>-0.02996030780416457</v>
+      </c>
+      <c r="H61">
+        <v>0.06719720868703843</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1308877237151495</v>
+        <v>0.1366278112385116</v>
       </c>
       <c r="C62">
-        <v>-0.05352782766110203</v>
+        <v>0.01082062655912902</v>
       </c>
       <c r="D62">
-        <v>-0.009191263881024673</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.04436032273008816</v>
+      </c>
+      <c r="E62">
+        <v>-0.038352223073036</v>
+      </c>
+      <c r="F62">
+        <v>-0.02479190822149142</v>
+      </c>
+      <c r="G62">
+        <v>-0.02270730702363611</v>
+      </c>
+      <c r="H62">
+        <v>0.1963673666191782</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05011636792600523</v>
+        <v>0.04863851881572297</v>
       </c>
       <c r="C63">
-        <v>-0.027690758238278</v>
+        <v>0.007724568263030365</v>
       </c>
       <c r="D63">
-        <v>0.02273040498629437</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02590659407690672</v>
+      </c>
+      <c r="E63">
+        <v>0.03926334151626847</v>
+      </c>
+      <c r="F63">
+        <v>0.0005532964542120332</v>
+      </c>
+      <c r="G63">
+        <v>-0.03810885064613274</v>
+      </c>
+      <c r="H63">
+        <v>0.03894755661433617</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1061213288902382</v>
+        <v>0.1106777513138636</v>
       </c>
       <c r="C64">
-        <v>-0.04449677745782142</v>
+        <v>0.01682610957041794</v>
       </c>
       <c r="D64">
-        <v>0.01509551155714051</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.03012692334371091</v>
+      </c>
+      <c r="E64">
+        <v>0.04360440984355775</v>
+      </c>
+      <c r="F64">
+        <v>0.0483232517931476</v>
+      </c>
+      <c r="G64">
+        <v>-0.05601878396912848</v>
+      </c>
+      <c r="H64">
+        <v>0.0245289478144428</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1242597287404254</v>
+        <v>0.1307561264862693</v>
       </c>
       <c r="C65">
-        <v>-0.06801487629043419</v>
+        <v>0.0451882340609142</v>
       </c>
       <c r="D65">
-        <v>0.00501623919317822</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.02313291385590391</v>
+      </c>
+      <c r="E65">
+        <v>-0.001106263180537938</v>
+      </c>
+      <c r="F65">
+        <v>0.02543174642353433</v>
+      </c>
+      <c r="G65">
+        <v>-0.06808608328170251</v>
+      </c>
+      <c r="H65">
+        <v>-0.1931025519903749</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1489886937367114</v>
+        <v>0.1526567941692035</v>
       </c>
       <c r="C66">
-        <v>-0.09159508932680983</v>
+        <v>0.01693357293306656</v>
       </c>
       <c r="D66">
-        <v>0.089483227999957</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.112387261543592</v>
+      </c>
+      <c r="E66">
+        <v>-0.02252776620597313</v>
+      </c>
+      <c r="F66">
+        <v>0.005665241472463117</v>
+      </c>
+      <c r="G66">
+        <v>-0.07322779824853488</v>
+      </c>
+      <c r="H66">
+        <v>0.08833790864851999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07897714133718706</v>
+        <v>0.08697562815839222</v>
       </c>
       <c r="C67">
-        <v>-0.02043973526723301</v>
+        <v>-0.004504703579651468</v>
       </c>
       <c r="D67">
-        <v>0.01376108585100803</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.0335947634984758</v>
+      </c>
+      <c r="E67">
+        <v>0.0186477850983682</v>
+      </c>
+      <c r="F67">
+        <v>0.0160450527892342</v>
+      </c>
+      <c r="G67">
+        <v>0.01214101649506428</v>
+      </c>
+      <c r="H67">
+        <v>0.02766761585363506</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.04631042177236987</v>
+        <v>0.0633569381392088</v>
       </c>
       <c r="C68">
-        <v>-0.03278434437137567</v>
+        <v>0.1493052582299818</v>
       </c>
       <c r="D68">
-        <v>-0.2637937105983366</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2395930161007227</v>
+      </c>
+      <c r="E68">
+        <v>0.04495607353145002</v>
+      </c>
+      <c r="F68">
+        <v>0.01033349077787443</v>
+      </c>
+      <c r="G68">
+        <v>0.001164156049725255</v>
+      </c>
+      <c r="H68">
+        <v>0.01272806727765285</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05393317459437839</v>
+        <v>0.0529321514519208</v>
       </c>
       <c r="C69">
-        <v>-0.02401624970677426</v>
+        <v>0.001549886261536432</v>
       </c>
       <c r="D69">
-        <v>0.01852024428118687</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.02191391913030015</v>
+      </c>
+      <c r="E69">
+        <v>0.02306629811932518</v>
+      </c>
+      <c r="F69">
+        <v>-0.0125707956183059</v>
+      </c>
+      <c r="G69">
+        <v>0.002727851430963946</v>
+      </c>
+      <c r="H69">
+        <v>0.04503321987696631</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.007186903624290597</v>
+        <v>0.03113538347448055</v>
       </c>
       <c r="C70">
-        <v>0.004269471086167831</v>
+        <v>0.003241170445891872</v>
       </c>
       <c r="D70">
-        <v>-0.009012335077887183</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.006565321352981018</v>
+      </c>
+      <c r="E70">
+        <v>-0.02423673808122367</v>
+      </c>
+      <c r="F70">
+        <v>-0.007635407921440837</v>
+      </c>
+      <c r="G70">
+        <v>0.02660493032307126</v>
+      </c>
+      <c r="H70">
+        <v>-0.02114871617423176</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.04363248571456728</v>
+        <v>0.06851713379499041</v>
       </c>
       <c r="C71">
-        <v>-0.03172995423464562</v>
+        <v>0.1647269405570534</v>
       </c>
       <c r="D71">
-        <v>-0.2956579557352531</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2602383593563046</v>
+      </c>
+      <c r="E71">
+        <v>0.0397456292450959</v>
+      </c>
+      <c r="F71">
+        <v>0.03936948811129176</v>
+      </c>
+      <c r="G71">
+        <v>0.001156505818495096</v>
+      </c>
+      <c r="H71">
+        <v>0.01221526971279045</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1369314061669993</v>
+        <v>0.1416492168698744</v>
       </c>
       <c r="C72">
-        <v>-0.06149536967927531</v>
+        <v>0.03035162019376894</v>
       </c>
       <c r="D72">
-        <v>-0.01632874139520201</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.0100102014429453</v>
+      </c>
+      <c r="E72">
+        <v>-0.03978817840427807</v>
+      </c>
+      <c r="F72">
+        <v>-0.1651711195368216</v>
+      </c>
+      <c r="G72">
+        <v>-0.1096678934599323</v>
+      </c>
+      <c r="H72">
+        <v>-0.004331324123595476</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2824721916202711</v>
+        <v>0.2839979684510882</v>
       </c>
       <c r="C73">
-        <v>-0.09845599774523517</v>
+        <v>-0.009087085964798012</v>
       </c>
       <c r="D73">
-        <v>0.04032313326936765</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09721246533346839</v>
+      </c>
+      <c r="E73">
+        <v>-0.2818046545559038</v>
+      </c>
+      <c r="F73">
+        <v>0.06033081592188456</v>
+      </c>
+      <c r="G73">
+        <v>0.2393566277178713</v>
+      </c>
+      <c r="H73">
+        <v>-0.4065030663775644</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07723353142974614</v>
+        <v>0.08924988133742041</v>
       </c>
       <c r="C74">
-        <v>-0.07465379528460982</v>
+        <v>0.03986504725331867</v>
       </c>
       <c r="D74">
-        <v>0.002422648434575364</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.05442342372628956</v>
+      </c>
+      <c r="E74">
+        <v>-0.007021860311974743</v>
+      </c>
+      <c r="F74">
+        <v>0.00185603257079981</v>
+      </c>
+      <c r="G74">
+        <v>0.03951704808317615</v>
+      </c>
+      <c r="H74">
+        <v>0.1264875509525167</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09993352152603155</v>
+        <v>0.1016402305190806</v>
       </c>
       <c r="C75">
-        <v>-0.05427439494319794</v>
+        <v>0.01451507505356893</v>
       </c>
       <c r="D75">
-        <v>0.0001606420508548898</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03170783879435814</v>
+      </c>
+      <c r="E75">
+        <v>-0.001403700794022479</v>
+      </c>
+      <c r="F75">
+        <v>0.000662755735210422</v>
+      </c>
+      <c r="G75">
+        <v>0.01235372995092489</v>
+      </c>
+      <c r="H75">
+        <v>0.1015224066452905</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.126376902585397</v>
+        <v>0.1380521615303215</v>
       </c>
       <c r="C76">
-        <v>-0.07392990494020542</v>
+        <v>0.02875691164777761</v>
       </c>
       <c r="D76">
-        <v>0.01874252234297731</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.06508697287483477</v>
+      </c>
+      <c r="E76">
+        <v>0.01014978097477282</v>
+      </c>
+      <c r="F76">
+        <v>0.03398893750974045</v>
+      </c>
+      <c r="G76">
+        <v>0.002738217197698762</v>
+      </c>
+      <c r="H76">
+        <v>0.2406451413756424</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1186431308225667</v>
+        <v>0.09997069307328578</v>
       </c>
       <c r="C77">
-        <v>-0.03503972188083884</v>
+        <v>-0.01950468727222194</v>
       </c>
       <c r="D77">
-        <v>0.07388582477720214</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.03917013356471181</v>
+      </c>
+      <c r="E77">
+        <v>0.05775930001868104</v>
+      </c>
+      <c r="F77">
+        <v>0.06658063334467416</v>
+      </c>
+      <c r="G77">
+        <v>-0.8101717384480803</v>
+      </c>
+      <c r="H77">
+        <v>-0.2651906355776326</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1076052680776416</v>
+        <v>0.1510452726220397</v>
       </c>
       <c r="C78">
-        <v>-0.05049037338865806</v>
+        <v>0.02254329335515252</v>
       </c>
       <c r="D78">
-        <v>0.08151359396841218</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.08685424958765883</v>
+      </c>
+      <c r="E78">
+        <v>0.04926476700270221</v>
+      </c>
+      <c r="F78">
+        <v>0.05824953473568639</v>
+      </c>
+      <c r="G78">
+        <v>-0.03444660437209261</v>
+      </c>
+      <c r="H78">
+        <v>-0.09628040678598701</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1383896647511409</v>
+        <v>0.1438763844966887</v>
       </c>
       <c r="C79">
-        <v>-0.07100962830018148</v>
+        <v>0.02062502466594646</v>
       </c>
       <c r="D79">
-        <v>0.02499423025254487</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.05452830268102946</v>
+      </c>
+      <c r="E79">
+        <v>-0.01089861223397383</v>
+      </c>
+      <c r="F79">
+        <v>0.01800284677461915</v>
+      </c>
+      <c r="G79">
+        <v>-0.01502108722225854</v>
+      </c>
+      <c r="H79">
+        <v>0.1710967198755635</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04272059503189857</v>
+        <v>0.04200050282845634</v>
       </c>
       <c r="C80">
-        <v>-0.02305987709707515</v>
+        <v>0.006170271886081775</v>
       </c>
       <c r="D80">
-        <v>0.02638129347812259</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01879852201125368</v>
+      </c>
+      <c r="E80">
+        <v>-0.04374415598871528</v>
+      </c>
+      <c r="F80">
+        <v>0.004699972816364187</v>
+      </c>
+      <c r="G80">
+        <v>0.01476629565767197</v>
+      </c>
+      <c r="H80">
+        <v>0.02844906888525212</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1226006609928048</v>
+        <v>0.1259920530565088</v>
       </c>
       <c r="C81">
-        <v>-0.0733448260261066</v>
+        <v>0.03018839121063676</v>
       </c>
       <c r="D81">
-        <v>0.01233377655300069</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.04052816434487329</v>
+      </c>
+      <c r="E81">
+        <v>0.0007620360807210473</v>
+      </c>
+      <c r="F81">
+        <v>0.0255545707986784</v>
+      </c>
+      <c r="G81">
+        <v>0.01110546969054991</v>
+      </c>
+      <c r="H81">
+        <v>0.1564661527691772</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1292367552797</v>
+        <v>0.1318187028690078</v>
       </c>
       <c r="C82">
-        <v>-0.07084302046553589</v>
+        <v>0.02995058765675264</v>
       </c>
       <c r="D82">
-        <v>0.007113181311290172</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.04252316996116062</v>
+      </c>
+      <c r="E82">
+        <v>-0.02036515174634061</v>
+      </c>
+      <c r="F82">
+        <v>0.03951180246874752</v>
+      </c>
+      <c r="G82">
+        <v>0.01337981797521967</v>
+      </c>
+      <c r="H82">
+        <v>0.2313794042385577</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.06404912842263343</v>
+        <v>0.08051120167313605</v>
       </c>
       <c r="C83">
-        <v>0.02032272316369933</v>
+        <v>-0.03409584085688414</v>
       </c>
       <c r="D83">
-        <v>0.02631954378488062</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.01302257546674316</v>
+      </c>
+      <c r="E83">
+        <v>0.01339638031189675</v>
+      </c>
+      <c r="F83">
+        <v>0.03094568459506091</v>
+      </c>
+      <c r="G83">
+        <v>0.04877342610843032</v>
+      </c>
+      <c r="H83">
+        <v>-0.01866437143583878</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.03190958275676749</v>
+        <v>0.03528662590329627</v>
       </c>
       <c r="C84">
-        <v>-0.04174457346866318</v>
+        <v>0.0122501710114771</v>
       </c>
       <c r="D84">
-        <v>0.03069373724995417</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.04771590455410039</v>
+      </c>
+      <c r="E84">
+        <v>0.02223764980563456</v>
+      </c>
+      <c r="F84">
+        <v>-0.03958834796420942</v>
+      </c>
+      <c r="G84">
+        <v>0.02777921290341947</v>
+      </c>
+      <c r="H84">
+        <v>0.0219253445547063</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1156667458064058</v>
+        <v>0.1221941772902138</v>
       </c>
       <c r="C85">
-        <v>-0.04741857671145533</v>
+        <v>0.007962401441701048</v>
       </c>
       <c r="D85">
-        <v>0.04178622599163254</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.04521813122492521</v>
+      </c>
+      <c r="E85">
+        <v>0.01119018522266235</v>
+      </c>
+      <c r="F85">
+        <v>0.04085836832690599</v>
+      </c>
+      <c r="G85">
+        <v>0.00919738014223836</v>
+      </c>
+      <c r="H85">
+        <v>0.1433082132298182</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.04996524939535467</v>
+        <v>0.05254860501851599</v>
       </c>
       <c r="C86">
-        <v>-0.02845237069762709</v>
+        <v>-0.001338912706389062</v>
       </c>
       <c r="D86">
-        <v>0.07123823028263199</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04225622333632928</v>
+      </c>
+      <c r="E86">
+        <v>0.03924675984654711</v>
+      </c>
+      <c r="F86">
+        <v>0.0290260439295254</v>
+      </c>
+      <c r="G86">
+        <v>0.02370876748022449</v>
+      </c>
+      <c r="H86">
+        <v>-0.06094887098349201</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1198361607999614</v>
+        <v>0.124695704226062</v>
       </c>
       <c r="C87">
-        <v>-0.08208663915239513</v>
+        <v>0.01825581676951096</v>
       </c>
       <c r="D87">
-        <v>0.06013121523906851</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.08020072807729442</v>
+      </c>
+      <c r="E87">
+        <v>0.02935068602263981</v>
+      </c>
+      <c r="F87">
+        <v>0.0260548013001258</v>
+      </c>
+      <c r="G87">
+        <v>-0.1500319475659244</v>
+      </c>
+      <c r="H87">
+        <v>-0.06404299091764956</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05427062724018965</v>
+        <v>0.06324206537389335</v>
       </c>
       <c r="C88">
-        <v>-0.03780127939589216</v>
+        <v>0.0114242508676875</v>
       </c>
       <c r="D88">
-        <v>0.0255207013985814</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04744852763904468</v>
+      </c>
+      <c r="E88">
+        <v>0.00167749057615331</v>
+      </c>
+      <c r="F88">
+        <v>0.02309750784341384</v>
+      </c>
+      <c r="G88">
+        <v>-0.00918386888241139</v>
+      </c>
+      <c r="H88">
+        <v>0.04648744448448536</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.07323328493239595</v>
+        <v>0.1078937390202011</v>
       </c>
       <c r="C89">
-        <v>-0.05515118910182326</v>
+        <v>0.2075626830806624</v>
       </c>
       <c r="D89">
-        <v>-0.3242465926692031</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.3008784322122037</v>
+      </c>
+      <c r="E89">
+        <v>0.05043036926174166</v>
+      </c>
+      <c r="F89">
+        <v>0.07235480088381036</v>
+      </c>
+      <c r="G89">
+        <v>0.02795868651989389</v>
+      </c>
+      <c r="H89">
+        <v>0.02177071033501895</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.05676215440515036</v>
+        <v>0.0815385755645338</v>
       </c>
       <c r="C90">
-        <v>-0.03823662662650755</v>
+        <v>0.1607163853948625</v>
       </c>
       <c r="D90">
-        <v>-0.2810451340230009</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.248866504804518</v>
+      </c>
+      <c r="E90">
+        <v>0.05094515166112314</v>
+      </c>
+      <c r="F90">
+        <v>0.02933537024540264</v>
+      </c>
+      <c r="G90">
+        <v>-0.03581514103549822</v>
+      </c>
+      <c r="H90">
+        <v>-0.02069051728671473</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.09129681917924189</v>
+        <v>0.09066723359020383</v>
       </c>
       <c r="C91">
-        <v>-0.05673302439469181</v>
+        <v>0.01650228744718045</v>
       </c>
       <c r="D91">
-        <v>0.004646015269689044</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03890222361908775</v>
+      </c>
+      <c r="E91">
+        <v>0.004002439305867017</v>
+      </c>
+      <c r="F91">
+        <v>0.00479608487211669</v>
+      </c>
+      <c r="G91">
+        <v>0.02495633341919972</v>
+      </c>
+      <c r="H91">
+        <v>0.08582763987555984</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.05781813638173196</v>
+        <v>0.08147552034826706</v>
       </c>
       <c r="C92">
-        <v>-0.04570773929822029</v>
+        <v>0.185024683590605</v>
       </c>
       <c r="D92">
-        <v>-0.333417010422836</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2861275115578498</v>
+      </c>
+      <c r="E92">
+        <v>0.04447752460045921</v>
+      </c>
+      <c r="F92">
+        <v>0.03826240321612309</v>
+      </c>
+      <c r="G92">
+        <v>-0.00404251067615364</v>
+      </c>
+      <c r="H92">
+        <v>0.02405252488253181</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.05053134681412547</v>
+        <v>0.07901860751873041</v>
       </c>
       <c r="C93">
-        <v>-0.04542281134037356</v>
+        <v>0.1794970474968248</v>
       </c>
       <c r="D93">
-        <v>-0.3074542294439874</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2613815316252382</v>
+      </c>
+      <c r="E93">
+        <v>0.01702105412421966</v>
+      </c>
+      <c r="F93">
+        <v>0.02997634945597569</v>
+      </c>
+      <c r="G93">
+        <v>-0.01933426587442098</v>
+      </c>
+      <c r="H93">
+        <v>0.005676220102634912</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.128548592752647</v>
+        <v>0.1260031547877436</v>
       </c>
       <c r="C94">
-        <v>-0.04109917159019894</v>
+        <v>-0.007903462101454624</v>
       </c>
       <c r="D94">
-        <v>0.04156605779053316</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04573189138231742</v>
+      </c>
+      <c r="E94">
+        <v>-0.02123342198803888</v>
+      </c>
+      <c r="F94">
+        <v>0.01837686714720648</v>
+      </c>
+      <c r="G94">
+        <v>0.04361280516777116</v>
+      </c>
+      <c r="H94">
+        <v>0.1033069562400569</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1180483157391285</v>
+        <v>0.1295228865610917</v>
       </c>
       <c r="C95">
-        <v>-0.03735505045722327</v>
+        <v>-0.008366570874165102</v>
       </c>
       <c r="D95">
-        <v>0.05903733101152801</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.06238565288116078</v>
+      </c>
+      <c r="E95">
+        <v>0.0129058449343449</v>
+      </c>
+      <c r="F95">
+        <v>0.05196221638045297</v>
+      </c>
+      <c r="G95">
+        <v>-0.05077728934568993</v>
+      </c>
+      <c r="H95">
+        <v>-0.09738492178466672</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2246326998112048</v>
+        <v>0.1936005716644228</v>
       </c>
       <c r="C97">
-        <v>-0.06079733017011325</v>
+        <v>0.006392813091984049</v>
       </c>
       <c r="D97">
-        <v>-0.122129119606368</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.05816083241066611</v>
+      </c>
+      <c r="E97">
+        <v>-0.03002744538382439</v>
+      </c>
+      <c r="F97">
+        <v>-0.9377904559417184</v>
+      </c>
+      <c r="G97">
+        <v>-0.0539548141369221</v>
+      </c>
+      <c r="H97">
+        <v>-0.01257729628853513</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2403491229559901</v>
+        <v>0.2739812742922589</v>
       </c>
       <c r="C98">
-        <v>-0.06896991653712538</v>
+        <v>0.01446958845410495</v>
       </c>
       <c r="D98">
-        <v>0.008366447117513264</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.04678222443651031</v>
+      </c>
+      <c r="E98">
+        <v>-0.2177880566085778</v>
+      </c>
+      <c r="F98">
+        <v>0.03742770017489244</v>
+      </c>
+      <c r="G98">
+        <v>0.2801290875752048</v>
+      </c>
+      <c r="H98">
+        <v>-0.1455819962390232</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4411554759471933</v>
+        <v>0.2812078988450107</v>
       </c>
       <c r="C99">
-        <v>0.8803967976654774</v>
+        <v>-0.8332448798736884</v>
       </c>
       <c r="D99">
-        <v>-0.0134964899565412</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.4342947664008521</v>
+      </c>
+      <c r="E99">
+        <v>0.07418493332373065</v>
+      </c>
+      <c r="F99">
+        <v>0.07378146779588184</v>
+      </c>
+      <c r="G99">
+        <v>-0.006761611621640515</v>
+      </c>
+      <c r="H99">
+        <v>0.06586688537343646</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04295813232042902</v>
+        <v>0.04798208090810538</v>
       </c>
       <c r="C101">
-        <v>-0.04241191943993523</v>
+        <v>0.02842581800517893</v>
       </c>
       <c r="D101">
-        <v>-0.003097479618560766</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02276161762106262</v>
+      </c>
+      <c r="E101">
+        <v>0.05239009343349368</v>
+      </c>
+      <c r="F101">
+        <v>0.02024124020170368</v>
+      </c>
+      <c r="G101">
+        <v>-0.002507113034098731</v>
+      </c>
+      <c r="H101">
+        <v>0.0873638669901292</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
